--- a/Files/299TestCases.xlsx
+++ b/Files/299TestCases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harry\Desktop\5G1C-Developers-master\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harry\Documents\GitHub\5G1C-Developers\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B56BD9-2246-4BE6-A322-8B82FDD9F6B7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2577F7A-F557-4425-B83E-A39CD3273476}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="117">
   <si>
     <t>Test case ID</t>
   </si>
@@ -154,10 +154,6 @@
 3. Click submit button.</t>
   </si>
   <si>
-    <t>A invalid username.
-A valid username.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Valid username and password entries. </t>
   </si>
   <si>
@@ -212,30 +208,12 @@
     <t>User can view store search page</t>
   </si>
   <si>
-    <t>Attempt to search for store</t>
-  </si>
-  <si>
-    <t>Attempt to search for vehicle</t>
-  </si>
-  <si>
-    <t>Attempt to serach with invalid variable</t>
-  </si>
-  <si>
-    <t>Results do not dsiplay NULL variables (Database Testing)</t>
-  </si>
-  <si>
     <t>User can refine results based on category</t>
   </si>
   <si>
-    <t>Filters can be applied to refine searches</t>
-  </si>
-  <si>
     <t>Selecting a store will show its entire inventory</t>
   </si>
   <si>
-    <t>Selecting a vehicle will show the stores its avaliable in (if any)</t>
-  </si>
-  <si>
     <t>Selecting a store will take the user to the store page</t>
   </si>
   <si>
@@ -245,24 +223,9 @@
     <t>Clicking customer search will take the user to the specific page</t>
   </si>
   <si>
-    <t>Attempt to search for specific customer using various variables</t>
-  </si>
-  <si>
     <t>Attempt to search for customer with invalid variables</t>
   </si>
   <si>
-    <t>User can refine results based on catagories</t>
-  </si>
-  <si>
-    <t>User can view rental history</t>
-  </si>
-  <si>
-    <t>Attempt to serach for specific entry</t>
-  </si>
-  <si>
-    <t>Attempt to search with invalid variable</t>
-  </si>
-  <si>
     <t>User cannot view page if not loggged in</t>
   </si>
   <si>
@@ -291,6 +254,159 @@
   </si>
   <si>
     <t>Clicking customer rentals will take user to page</t>
+  </si>
+  <si>
+    <t>An invalid username and
+valid username.</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>User should be able to try again</t>
+  </si>
+  <si>
+    <t>1. Navigate to website login page.
+2. Leave either username and password input fields empty.
+3. Click submit button.</t>
+  </si>
+  <si>
+    <t>Valid username and invalid password</t>
+  </si>
+  <si>
+    <t>Attempt to login to website with inccorect password more than five times</t>
+  </si>
+  <si>
+    <t>User should be barred from logging in for a set amount of time after five failed attempts</t>
+  </si>
+  <si>
+    <t>User should not be able to login using the same username for a set amount of time</t>
+  </si>
+  <si>
+    <t>1. Navigate to Store Search page</t>
+  </si>
+  <si>
+    <t>User should be able to view the store search page</t>
+  </si>
+  <si>
+    <t>The store search page should be functional</t>
+  </si>
+  <si>
+    <t>Results do not display NULL variables (Database Testing)</t>
+  </si>
+  <si>
+    <t>Attempt to search for store with valid data</t>
+  </si>
+  <si>
+    <t>Attempt to search for store with invalid data</t>
+  </si>
+  <si>
+    <t>Attempt to search for store with no entered data</t>
+  </si>
+  <si>
+    <t>Attempt to search for vehicle with no entered data</t>
+  </si>
+  <si>
+    <t>Attempt to search for vehicle with invalid data</t>
+  </si>
+  <si>
+    <t>Attempt to search for vehicle with valid data</t>
+  </si>
+  <si>
+    <t>1. Navigate to vehicle search page</t>
+  </si>
+  <si>
+    <t>Access to a CRC website</t>
+  </si>
+  <si>
+    <t>Valid store details</t>
+  </si>
+  <si>
+    <t>Attempt to search for vehicle with multiple valid variables</t>
+  </si>
+  <si>
+    <t>Attempt to search for store with multiple valid variables</t>
+  </si>
+  <si>
+    <t>Attempt to search for store with multiple valid variables and an invalid variable</t>
+  </si>
+  <si>
+    <t>Attempt to search for vehicle with multiple valid variables and an invalid variable</t>
+  </si>
+  <si>
+    <t>Incorrect information (such as Customer Name)</t>
+  </si>
+  <si>
+    <t>Valid vehicle details</t>
+  </si>
+  <si>
+    <t>Multiple valid store variables</t>
+  </si>
+  <si>
+    <t>Multiple valid vehicle variables</t>
+  </si>
+  <si>
+    <t>Multiple valid vehicle variables and an invalid variable (such as customer name)</t>
+  </si>
+  <si>
+    <t>Multiple valid store variables and an invalid variable (such as customer name)</t>
+  </si>
+  <si>
+    <t>Search results should not display anything</t>
+  </si>
+  <si>
+    <t>Search results should display vehicles consistent with the searched detail</t>
+  </si>
+  <si>
+    <t>Search results should display vehicles consistent with the searched details</t>
+  </si>
+  <si>
+    <t>Search results should not provide valid results</t>
+  </si>
+  <si>
+    <t>Search results should display stores consistent with entered detail</t>
+  </si>
+  <si>
+    <t>Search results should display stores consistent with entered details</t>
+  </si>
+  <si>
+    <t>Attempt to search for specific entry in rental history</t>
+  </si>
+  <si>
+    <t>Attempt to search with invalid variable in rental history</t>
+  </si>
+  <si>
+    <t>Attempt to search for specific customer with one variable</t>
+  </si>
+  <si>
+    <t>Attempt to search for specific customer with multiple variables to refine search</t>
+  </si>
+  <si>
+    <t>User can refine results based on categories</t>
+  </si>
+  <si>
+    <t>Selecting a vehicle will show the stores it's available in (if any)</t>
+  </si>
+  <si>
+    <t>Valid vehicle data</t>
+  </si>
+  <si>
+    <t>Valid store data</t>
+  </si>
+  <si>
+    <t>Valid store data and vahild vehicle data</t>
+  </si>
+  <si>
+    <t>Selecting a store to display inventory should NOT display results with missing data to a non-employee</t>
+  </si>
+  <si>
+    <t>Selecting a store to display inventory should NOT display results with invalid data to a non-employee</t>
+  </si>
+  <si>
+    <t>Logged in user can view rental history</t>
+  </si>
+  <si>
+    <t>User that hasn't logged in cannot view any rental histories</t>
   </si>
 </sst>
 </file>
@@ -657,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,9 +818,6 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="124.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
@@ -724,13 +837,10 @@
         <v>13</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -741,19 +851,16 @@
         <v>24</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="69" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
@@ -764,19 +871,16 @@
         <v>25</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -787,19 +891,19 @@
         <v>27</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
@@ -810,17 +914,17 @@
         <v>26</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="69" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
       <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
@@ -831,22 +935,19 @@
         <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
       <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
@@ -857,19 +958,19 @@
         <v>29</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
@@ -880,16 +981,19 @@
         <v>30</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
@@ -900,16 +1004,19 @@
         <v>31</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
       <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
@@ -920,266 +1027,456 @@
         <v>32</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="69" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="69" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="C25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="E28" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="H31" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="H32" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="H35" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="H42" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="H44" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="H45" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="H46" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>45</v>
+      <c r="H48" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
